--- a/ITI/PDQm/2.4.0/StructureDefinition-IHE.PDQm.Query.Audit.Consumer.xlsx
+++ b/ITI/PDQm/2.4.0/StructureDefinition-IHE.PDQm.Query.Audit.Consumer.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T07:42:59-06:00</t>
+    <t>2022-02-28T18:57:17-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
